--- a/biology/Médecine/Pierre_Pichot/Pierre_Pichot.xlsx
+++ b/biology/Médecine/Pierre_Pichot/Pierre_Pichot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Pichot est un psychiatre français, né à La Roche-sur-Yon le 3 octobre 1918[1] et mort le 23 juillet 2020 à Paris[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Pichot est un psychiatre français, né à La Roche-sur-Yon le 3 octobre 1918 et mort le 23 juillet 2020 à Paris.
 Ayant à la fois une formation en mathématiques et en psychologie, il s'est intéressé à la psychométrie ainsi qu'à la psychopathologie quantitative et a également aidé à introduire les tests psychologiques ainsi que la psychothérapie comportementale en France.
-Il est président de l'Association mondiale de psychiatrie de 1977 à 1983, et de l'Association française de thérapie comportementale et cognitive de 1971 à 1973[3].
+Il est président de l'Association mondiale de psychiatrie de 1977 à 1983, et de l'Association française de thérapie comportementale et cognitive de 1971 à 1973.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Pierre Pichot, Les tests mentaux, 6e éd., Paris, Presses universitaires de France, 1967.
 Jean Delay et Pierre Pichot, Abrégé de psychologie, 3e éd., Paris, Masson, 1975.
